--- a/src/main/resources/review-rules/rules.xlsx
+++ b/src/main/resources/review-rules/rules.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
   <si>
     <t>contract_types</t>
   </si>
@@ -315,6 +315,24 @@
   </si>
   <si>
     <t>乙方应确认清楚协议的有效期和续期条款</t>
+  </si>
+  <si>
+    <t>支付;付款;款项;周期;结算;方式;方法;转账;汇款;支付周期;付款周期;支付条件;付款条件;支付时间;付款时间</t>
+  </si>
+  <si>
+    <t>(支付|付款).*?(\d+).*?(天|个工作日|天内|工作日内)</t>
+  </si>
+  <si>
+    <t>违约;毁约;违反;不履行;责任;赔偿;处罚;罚款;违约金;违约方;债务;失效</t>
+  </si>
+  <si>
+    <t>(违约|毁约|违反).*?(责任|赔偿|罚款|金额|处罚)</t>
+  </si>
+  <si>
+    <t>保证;保障;承诺;承担;担保;责任;义务;保证义务;保证责任;担保责任</t>
+  </si>
+  <si>
+    <t>(保证|保障|承诺).*?(责任|义务|条件)|(责任|义务).*?(保证|保障|承诺)</t>
   </si>
 </sst>
 </file>
@@ -337,7 +355,7 @@
       <color indexed="9"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +368,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -365,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -373,6 +401,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment wrapText="true" vertical="top" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -388,14 +419,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
-    <col min="2" max="2" width="7.8125" customWidth="true"/>
-    <col min="3" max="3" width="5.859375" customWidth="true"/>
-    <col min="4" max="4" width="11.71875" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
-    <col min="6" max="6" width="15.625" customWidth="true"/>
-    <col min="7" max="7" width="15.625" customWidth="true"/>
-    <col min="8" max="8" width="15.625" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="11.71875"/>
+    <col min="2" max="2" customWidth="true" width="7.8125"/>
+    <col min="3" max="3" customWidth="true" width="5.859375"/>
+    <col min="4" max="4" customWidth="true" width="11.71875"/>
+    <col min="5" max="5" customWidth="true" width="11.71875"/>
+    <col min="6" max="6" customWidth="true" width="15.625"/>
+    <col min="7" max="7" customWidth="true" width="15.625"/>
+    <col min="8" max="8" customWidth="true" width="15.625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -434,11 +465,11 @@
       <c r="C2" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>12</v>
+      <c r="D2" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s" s="3">
+        <v>92</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>13</v>
@@ -460,11 +491,11 @@
       <c r="C3" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>17</v>
+      <c r="D3" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s" s="4">
+        <v>94</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>18</v>
@@ -746,11 +777,11 @@
       <c r="C14" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="D14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>76</v>
+      <c r="D14" t="s" s="5">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s" s="5">
+        <v>96</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>77</v>

--- a/src/main/resources/review-rules/rules.xlsx
+++ b/src/main/resources/review-rules/rules.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
   <si>
     <t>contract_types</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>(保证|保障|承诺).*?(责任|义务|条件)|(责任|义务).*?(保证|保障|承诺)</t>
+  </si>
+  <si>
+    <t>违约;违反;违约方;责任;赔偿;罚款;赔偿责任;未履行;合同义务;违约责任;失效;终止;合同失效;解除;中止</t>
+  </si>
+  <si>
+    <t>(违约|违反).*?(方|责任|赔偿|罚款)|赔偿.*?(违反|责任)|未?履行.*(义务|责任)</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -401,6 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment wrapText="true" vertical="top" horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -491,11 +498,11 @@
       <c r="C3" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="4">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>94</v>
+      <c r="D3" t="s" s="6">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>98</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>18</v>
